--- a/Data/Drug Dilution Tables/240726_DDT_DP3_Dosing.xlsx
+++ b/Data/Drug Dilution Tables/240726_DDT_DP3_Dosing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Drug Dilution Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C7300EC-BB41-B24A-84CB-C91C43016E39}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{E5B666E1-2E84-F644-A6CF-C787879DBDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D4B2C3-D796-E642-BABF-315FB7BF5494}"/>
   <bookViews>
     <workbookView xWindow="32540" yWindow="-1600" windowWidth="29400" windowHeight="16860" xr2:uid="{1379DBA8-BB83-2F42-B17C-BC8606A812DC}"/>
   </bookViews>
@@ -135,9 +135,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -202,7 +199,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +215,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,7 +541,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
